--- a/Astronaut and the Aliens.xlsx
+++ b/Astronaut and the Aliens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="11895"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>creating astronaut and aliens sprite with createSprite().</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>3 gameStates : start, play and end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Solving bug on starting the game.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -414,6 +417,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
